--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/All the Things/Code Projects/R/UR Covid Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ED2173-C610-0640-ACC4-FEC1C9A597AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7340E61-4480-9F46-B7D4-068F2AA57950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:A112"/>
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1640,6 +1640,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B113">
+        <v>500</v>
+      </c>
+      <c r="C113">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7340E61-4480-9F46-B7D4-068F2AA57950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD7AAA-9254-6044-BC1B-261AD9AF4200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD7AAA-9254-6044-BC1B-261AD9AF4200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BFB0E6-265A-9A41-9F96-EAD85B944F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+      <selection activeCell="A113" sqref="A113:E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1640,17 +1640,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>44155</v>
-      </c>
-      <c r="B113">
-        <v>500</v>
-      </c>
-      <c r="C113">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BFB0E6-265A-9A41-9F96-EAD85B944F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D084F9-9FC8-E44A-B45D-88F9CDF3E716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:E113"/>
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D084F9-9FC8-E44A-B45D-88F9CDF3E716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF05599F-3052-A940-89F1-125379CF0CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1640,6 +1640,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B113">
+        <v>444</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF05599F-3052-A940-89F1-125379CF0CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74985CA-2A16-094F-85C7-64B6D21AE1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1651,6 +1651,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B114">
+        <v>534</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B115">
+        <v>238</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74985CA-2A16-094F-85C7-64B6D21AE1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F390A7CF-7D4E-FC4E-BFF4-913E076D5809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1684,6 +1684,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B117">
+        <v>487</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F390A7CF-7D4E-FC4E-BFF4-913E076D5809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5951CBD5-BF61-244A-B04A-D5651D47EED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1695,6 +1695,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B118">
+        <v>372</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5951CBD5-BF61-244A-B04A-D5651D47EED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B107DAC-E096-9245-B771-1D11DE0109CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1706,6 +1706,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B107DAC-E096-9245-B771-1D11DE0109CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38AFB23-0701-DE46-B79A-008C9C871844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1728,6 +1728,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B123">
+        <v>125</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38AFB23-0701-DE46-B79A-008C9C871844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE5C838-9929-304C-B3BC-D89C6D77C571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1761,6 +1761,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE5C838-9929-304C-B3BC-D89C6D77C571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429FDF1A-AE46-4D4E-9AE9-A67DD353FA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1772,6 +1772,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B125">
+        <v>96</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429FDF1A-AE46-4D4E-9AE9-A67DD353FA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C080A-B8E4-084C-B5AB-87F7439C718A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1783,6 +1783,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B126">
+        <v>28</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C080A-B8E4-084C-B5AB-87F7439C718A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1515688E-8231-124B-848C-420EBFD12FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125:A126"/>
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1794,6 +1794,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B127">
+        <v>37</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1515688E-8231-124B-848C-420EBFD12FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C86866-476C-FB43-B12F-01B187813335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1805,6 +1805,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B130">
+        <v>47</v>
+      </c>
+      <c r="C130">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C86866-476C-FB43-B12F-01B187813335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C9973F-FC41-7A46-9136-E7357DE0D00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1838,6 +1838,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B131">
+        <v>27</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B132">
+        <v>37</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C9973F-FC41-7A46-9136-E7357DE0D00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C418F85-51AA-A14A-8F50-675BE5EAD101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1860,6 +1860,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B133">
+        <v>35</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C418F85-51AA-A14A-8F50-675BE5EAD101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B4EBD7-A955-884F-BE3A-0934D142460B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1871,6 +1871,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B134">
+        <v>39</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B4EBD7-A955-884F-BE3A-0934D142460B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1257D404-3A1D-FD47-A39D-3E930C19A4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1882,6 +1882,39 @@
         <v>3</v>
       </c>
     </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B135">
+        <v>43</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B136">
+        <v>17</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1257D404-3A1D-FD47-A39D-3E930C19A4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7E9958-5CEF-E74B-97E0-C69DB11A6ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1915,6 +1915,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B138">
+        <v>43</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisun/Desktop/UR Covid Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7E9958-5CEF-E74B-97E0-C69DB11A6ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{2DC10746-11EF-284B-92B6-91815D32F896}"/>
+    <workbookView xWindow="1280" yWindow="540" windowWidth="28800" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="130407"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,6 +21,9 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -47,17 +44,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,7 +89,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -143,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -195,7 +196,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -389,26 +390,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E3710-B2DD-D440-8104-3784AF9C3D06}">
-  <dimension ref="A1:C138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>44044</v>
       </c>
@@ -430,7 +431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>44045</v>
       </c>
@@ -441,7 +442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>44046</v>
       </c>
@@ -452,7 +453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>44047</v>
       </c>
@@ -463,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>44048</v>
       </c>
@@ -474,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>44049</v>
       </c>
@@ -485,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>44050</v>
       </c>
@@ -496,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>44051</v>
       </c>
@@ -507,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>44052</v>
       </c>
@@ -518,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>44053</v>
       </c>
@@ -529,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>44054</v>
       </c>
@@ -540,7 +541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>44055</v>
       </c>
@@ -551,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>44056</v>
       </c>
@@ -562,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>44057</v>
       </c>
@@ -573,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>44058</v>
       </c>
@@ -584,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>44059</v>
       </c>
@@ -595,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>44060</v>
       </c>
@@ -606,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>44061</v>
       </c>
@@ -617,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>44062</v>
       </c>
@@ -628,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>44063</v>
       </c>
@@ -639,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>44064</v>
       </c>
@@ -650,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>44065</v>
       </c>
@@ -661,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>44066</v>
       </c>
@@ -672,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>44067</v>
       </c>
@@ -683,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>44068</v>
       </c>
@@ -694,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>44069</v>
       </c>
@@ -705,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>44070</v>
       </c>
@@ -716,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>44071</v>
       </c>
@@ -727,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>44072</v>
       </c>
@@ -738,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>44073</v>
       </c>
@@ -749,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>44074</v>
       </c>
@@ -760,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>44075</v>
       </c>
@@ -771,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>44076</v>
       </c>
@@ -782,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>44077</v>
       </c>
@@ -793,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>44078</v>
       </c>
@@ -804,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>44079</v>
       </c>
@@ -815,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>44080</v>
       </c>
@@ -826,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>44081</v>
       </c>
@@ -837,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>44082</v>
       </c>
@@ -848,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>44083</v>
       </c>
@@ -859,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>44084</v>
       </c>
@@ -870,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>44085</v>
       </c>
@@ -881,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>44086</v>
       </c>
@@ -892,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>44087</v>
       </c>
@@ -903,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44088</v>
       </c>
@@ -914,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>44089</v>
       </c>
@@ -925,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>44090</v>
       </c>
@@ -936,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>44091</v>
       </c>
@@ -947,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>44092</v>
       </c>
@@ -958,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>44093</v>
       </c>
@@ -969,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>44094</v>
       </c>
@@ -980,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>44095</v>
       </c>
@@ -991,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>44096</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>44097</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>44098</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>44099</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>44100</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>44101</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>44102</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>44103</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>44104</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>44105</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>44106</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>44107</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>44108</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>44109</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>44110</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>44111</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>44112</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>44113</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>44114</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>44115</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>44116</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>44117</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>44118</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>44119</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>44120</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>44121</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>44122</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>44123</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>44124</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>44125</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>44126</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>44127</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>44128</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>44129</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>44130</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>44131</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>44132</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>44133</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>44134</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>44135</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>44136</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>44137</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>44138</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>44139</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>44140</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>44141</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>44142</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>44143</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>44144</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>44145</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>44146</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>44147</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>44148</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>44149</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>44150</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>44151</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>44152</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>44153</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>44154</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>44155</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>44156</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>44157</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>44158</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>44159</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>44160</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>44161</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>44162</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>44163</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>44164</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>44165</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>44166</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>44167</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>44168</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>44169</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>44170</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>44171</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>44172</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>44173</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>44174</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>44175</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>44176</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>44177</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>44178</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>44179</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>44180</v>
       </c>
@@ -1926,7 +1927,24 @@
         <v>1</v>
       </c>
     </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B139">
+        <v>56</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -390,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1936,6 +1936,17 @@
       </c>
       <c r="C139">
         <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B140">
+        <v>106</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -390,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1947,6 +1947,17 @@
       </c>
       <c r="C140">
         <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B141">
+        <v>125</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="540" windowWidth="28800" windowHeight="17040"/>
+    <workbookView xWindow="5660" yWindow="140" windowWidth="28800" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1958,6 +1958,39 @@
       </c>
       <c r="C141">
         <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B142">
+        <v>147</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B143">
+        <v>17</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="140" windowWidth="28800" windowHeight="17040"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="29600" windowHeight="19620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1991,6 +1991,17 @@
       </c>
       <c r="C144">
         <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B145">
+        <v>64</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2002,6 +2002,17 @@
       </c>
       <c r="C145">
         <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B146">
+        <v>55</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -390,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2015,7 +2015,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B147">
+        <v>36</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="29600" windowHeight="19620"/>
+    <workbookView xWindow="16920" yWindow="0" windowWidth="16520" windowHeight="19540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2026,8 +2026,51 @@
         <v>2</v>
       </c>
     </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -390,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2067,6 +2067,17 @@
         <v>0</v>
       </c>
       <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B152">
+        <v>15</v>
+      </c>
+      <c r="C152">
         <v>1</v>
       </c>
     </row>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -390,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2078,6 +2078,17 @@
         <v>15</v>
       </c>
       <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B153">
+        <v>18</v>
+      </c>
+      <c r="C153">
         <v>1</v>
       </c>
     </row>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="0" windowWidth="16520" windowHeight="19540"/>
+    <workbookView xWindow="14340" yWindow="-80" windowWidth="16660" windowHeight="19540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1327,7 +1327,7 @@
         <v>44126</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2089,6 +2089,17 @@
         <v>18</v>
       </c>
       <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
         <v>1</v>
       </c>
     </row>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B578735A-3C52-CE4B-8EF7-C36385ED5B01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="-80" windowWidth="16660" windowHeight="19540"/>
+    <workbookView xWindow="12140" yWindow="460" windowWidth="16660" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="130407"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -44,11 +42,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,26 +388,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44044</v>
       </c>
@@ -431,7 +429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44045</v>
       </c>
@@ -442,7 +440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44046</v>
       </c>
@@ -453,7 +451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44047</v>
       </c>
@@ -464,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44048</v>
       </c>
@@ -475,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44049</v>
       </c>
@@ -486,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44050</v>
       </c>
@@ -497,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44051</v>
       </c>
@@ -508,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44052</v>
       </c>
@@ -519,7 +517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44053</v>
       </c>
@@ -530,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44054</v>
       </c>
@@ -541,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44055</v>
       </c>
@@ -552,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44056</v>
       </c>
@@ -563,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44057</v>
       </c>
@@ -574,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44058</v>
       </c>
@@ -585,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44059</v>
       </c>
@@ -596,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44060</v>
       </c>
@@ -607,7 +605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44061</v>
       </c>
@@ -618,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44062</v>
       </c>
@@ -629,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44063</v>
       </c>
@@ -640,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44064</v>
       </c>
@@ -651,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44065</v>
       </c>
@@ -662,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44066</v>
       </c>
@@ -673,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44067</v>
       </c>
@@ -684,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44068</v>
       </c>
@@ -695,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44069</v>
       </c>
@@ -706,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44070</v>
       </c>
@@ -717,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44071</v>
       </c>
@@ -728,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44072</v>
       </c>
@@ -739,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44073</v>
       </c>
@@ -750,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44074</v>
       </c>
@@ -761,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44075</v>
       </c>
@@ -772,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44076</v>
       </c>
@@ -783,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44077</v>
       </c>
@@ -794,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44078</v>
       </c>
@@ -805,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44079</v>
       </c>
@@ -816,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44080</v>
       </c>
@@ -827,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44081</v>
       </c>
@@ -838,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44082</v>
       </c>
@@ -849,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44083</v>
       </c>
@@ -860,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44084</v>
       </c>
@@ -871,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44085</v>
       </c>
@@ -882,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44086</v>
       </c>
@@ -893,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44087</v>
       </c>
@@ -904,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44088</v>
       </c>
@@ -915,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44089</v>
       </c>
@@ -926,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44090</v>
       </c>
@@ -937,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44091</v>
       </c>
@@ -948,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44092</v>
       </c>
@@ -959,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44093</v>
       </c>
@@ -970,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44094</v>
       </c>
@@ -981,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44095</v>
       </c>
@@ -992,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44096</v>
       </c>
@@ -1003,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44097</v>
       </c>
@@ -1014,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44098</v>
       </c>
@@ -1025,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44099</v>
       </c>
@@ -1036,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44100</v>
       </c>
@@ -1047,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44101</v>
       </c>
@@ -1058,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44102</v>
       </c>
@@ -1069,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44103</v>
       </c>
@@ -1080,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44104</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44105</v>
       </c>
@@ -1102,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44106</v>
       </c>
@@ -1113,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44107</v>
       </c>
@@ -1124,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44108</v>
       </c>
@@ -1135,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44109</v>
       </c>
@@ -1146,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44110</v>
       </c>
@@ -1157,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44111</v>
       </c>
@@ -1168,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44112</v>
       </c>
@@ -1179,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44113</v>
       </c>
@@ -1190,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44114</v>
       </c>
@@ -1201,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44115</v>
       </c>
@@ -1212,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44116</v>
       </c>
@@ -1223,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44117</v>
       </c>
@@ -1234,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44118</v>
       </c>
@@ -1245,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44119</v>
       </c>
@@ -1256,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44120</v>
       </c>
@@ -1267,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44121</v>
       </c>
@@ -1278,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44122</v>
       </c>
@@ -1289,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44123</v>
       </c>
@@ -1300,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44124</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44125</v>
       </c>
@@ -1322,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44126</v>
       </c>
@@ -1333,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44127</v>
       </c>
@@ -1344,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44128</v>
       </c>
@@ -1355,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44129</v>
       </c>
@@ -1366,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44130</v>
       </c>
@@ -1377,7 +1375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44131</v>
       </c>
@@ -1388,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44132</v>
       </c>
@@ -1399,7 +1397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44133</v>
       </c>
@@ -1410,7 +1408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44134</v>
       </c>
@@ -1421,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44135</v>
       </c>
@@ -1432,7 +1430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44136</v>
       </c>
@@ -1443,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44137</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44138</v>
       </c>
@@ -1465,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44139</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44140</v>
       </c>
@@ -1487,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44141</v>
       </c>
@@ -1498,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44142</v>
       </c>
@@ -1509,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44143</v>
       </c>
@@ -1520,7 +1518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44144</v>
       </c>
@@ -1531,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44145</v>
       </c>
@@ -1542,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44146</v>
       </c>
@@ -1553,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44147</v>
       </c>
@@ -1564,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44148</v>
       </c>
@@ -1575,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44149</v>
       </c>
@@ -1586,7 +1584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44150</v>
       </c>
@@ -1597,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44151</v>
       </c>
@@ -1608,7 +1606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44152</v>
       </c>
@@ -1619,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44153</v>
       </c>
@@ -1630,7 +1628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44154</v>
       </c>
@@ -1641,7 +1639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44155</v>
       </c>
@@ -1652,7 +1650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44156</v>
       </c>
@@ -1663,7 +1661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44157</v>
       </c>
@@ -1674,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44158</v>
       </c>
@@ -1685,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>44159</v>
       </c>
@@ -1696,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44160</v>
       </c>
@@ -1707,7 +1705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44161</v>
       </c>
@@ -1718,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44162</v>
       </c>
@@ -1729,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44163</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44164</v>
       </c>
@@ -1751,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44165</v>
       </c>
@@ -1762,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44166</v>
       </c>
@@ -1773,7 +1771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44167</v>
       </c>
@@ -1784,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44168</v>
       </c>
@@ -1795,7 +1793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44169</v>
       </c>
@@ -1806,7 +1804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44170</v>
       </c>
@@ -1817,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44171</v>
       </c>
@@ -1828,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44172</v>
       </c>
@@ -1839,7 +1837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44173</v>
       </c>
@@ -1850,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44174</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44175</v>
       </c>
@@ -1872,7 +1870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44176</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44177</v>
       </c>
@@ -1894,7 +1892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44178</v>
       </c>
@@ -1905,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44179</v>
       </c>
@@ -1916,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44180</v>
       </c>
@@ -1927,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44181</v>
       </c>
@@ -1938,7 +1936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44182</v>
       </c>
@@ -1949,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44183</v>
       </c>
@@ -1960,7 +1958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44184</v>
       </c>
@@ -1971,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44185</v>
       </c>
@@ -1982,7 +1980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44186</v>
       </c>
@@ -1993,7 +1991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44187</v>
       </c>
@@ -2004,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44188</v>
       </c>
@@ -2015,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44189</v>
       </c>
@@ -2026,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44190</v>
       </c>
@@ -2037,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44191</v>
       </c>
@@ -2048,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44192</v>
       </c>
@@ -2059,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44193</v>
       </c>
@@ -2070,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44194</v>
       </c>
@@ -2081,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44195</v>
       </c>
@@ -2092,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44196</v>
       </c>
@@ -2101,6 +2099,50 @@
       </c>
       <c r="C154">
         <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B158">
+        <v>40</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B578735A-3C52-CE4B-8EF7-C36385ED5B01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CEFBF1-3919-4B49-8779-88ABB0710C88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="460" windowWidth="16660" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -142,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -194,7 +203,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -396,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2143,6 +2152,17 @@
       </c>
       <c r="C158">
         <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B159">
+        <v>378</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CEFBF1-3919-4B49-8779-88ABB0710C88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A52862-66A0-2A42-9B1C-265AB12E4BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2163,6 +2163,17 @@
       </c>
       <c r="C159">
         <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B160">
+        <v>51</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A52862-66A0-2A42-9B1C-265AB12E4BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DFDB22-A268-1A46-85E6-70F3FED8B390}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2174,6 +2174,17 @@
       </c>
       <c r="C160">
         <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B161">
+        <v>39</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DFDB22-A268-1A46-85E6-70F3FED8B390}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361966F5-4D1E-0B4D-8DC0-5DBAF39E9A32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2185,6 +2185,17 @@
       </c>
       <c r="C161">
         <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B162">
+        <v>73</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361966F5-4D1E-0B4D-8DC0-5DBAF39E9A32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022CE210-2B53-3F42-AB34-3242A0BCDB30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+      <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2196,6 +2196,28 @@
       </c>
       <c r="C162">
         <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B163">
+        <v>50</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022CE210-2B53-3F42-AB34-3242A0BCDB30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD48160E-4B7A-5C43-BFBC-29B17C761189}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2218,6 +2218,17 @@
       </c>
       <c r="C164">
         <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD48160E-4B7A-5C43-BFBC-29B17C761189}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7122C185-0E14-D945-B6FB-F60D45E089EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2228,6 +2228,17 @@
         <v>0</v>
       </c>
       <c r="C165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B166">
+        <v>56</v>
+      </c>
+      <c r="C166">
         <v>5</v>
       </c>
     </row>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7122C185-0E14-D945-B6FB-F60D45E089EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30161569-04F7-8241-B4A1-6E60FB2488A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
       <selection activeCell="C169" sqref="C169"/>
@@ -2242,6 +2242,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B167">
+        <v>31</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30161569-04F7-8241-B4A1-6E60FB2488A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FA2603-4859-354F-B138-89CCC15BC076}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+      <selection activeCell="A167" sqref="A167:A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2250,6 +2250,17 @@
         <v>31</v>
       </c>
       <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B168">
+        <v>20</v>
+      </c>
+      <c r="C168">
         <v>1</v>
       </c>
     </row>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FA2603-4859-354F-B138-89CCC15BC076}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37FE9F2-7417-C94E-BFAA-A854C17889F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167:A168"/>
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2262,6 +2262,17 @@
       </c>
       <c r="C168">
         <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B169">
+        <v>33</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37FE9F2-7417-C94E-BFAA-A854C17889F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF66E3C7-27C1-0747-8848-763E88CD1C11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2273,6 +2273,17 @@
       </c>
       <c r="C169">
         <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B170">
+        <v>35</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -2,37 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF66E3C7-27C1-0747-8848-763E88CD1C11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6DE44-6309-F34C-984B-B8BA685B0F3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="covdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -52,10 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,19 +44,315 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Verdana"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -84,19 +360,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -405,19 +870,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2286,13 +2748,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B171">
+        <v>23</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6DE44-6309-F34C-984B-B8BA685B0F3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF956C27-8E3D-FA46-9341-0CBE17C26DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2759,6 +2759,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF956C27-8E3D-FA46-9341-0CBE17C26DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F29E5D6-F4AF-9D42-A516-04FD027EB245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2781,6 +2781,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B174">
+        <v>141</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F29E5D6-F4AF-9D42-A516-04FD027EB245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD4472D-8649-1C4D-B045-5A21AA765CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+      <selection activeCell="A174" sqref="A174:A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2792,6 +2792,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B175">
+        <v>113</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD4472D-8649-1C4D-B045-5A21AA765CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD850D-0AE2-174B-8651-4F0C443EF09F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174:A175"/>
+      <selection activeCell="F176" sqref="F176:G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2803,6 +2803,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B176">
+        <v>98</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD850D-0AE2-174B-8651-4F0C443EF09F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D0E606-0E3C-AF42-9594-42F9C74BE4A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176:G176"/>
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2814,6 +2814,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B177">
+        <v>119</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D0E606-0E3C-AF42-9594-42F9C74BE4A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDEC836-3D77-194D-9C74-B4D49376050D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2825,6 +2825,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B178">
+        <v>387</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDEC836-3D77-194D-9C74-B4D49376050D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62868E55-0376-574B-BA06-CF3FEDB650EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2836,6 +2836,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B179">
+        <v>235</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B180">
+        <v>238</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62868E55-0376-574B-BA06-CF3FEDB650EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E30275C-FEDF-F542-BE65-BE6B9309ABD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="D184" sqref="D184"/>
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2858,6 +2858,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B181">
+        <v>130</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E30275C-FEDF-F542-BE65-BE6B9309ABD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DC2A62-BE63-6E4E-B631-050CBE085397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2869,6 +2869,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B182">
+        <v>383</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DC2A62-BE63-6E4E-B631-050CBE085397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CC42F-33DC-0942-8C84-E6F28B2BF540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187"/>
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2880,6 +2880,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B183">
+        <v>363</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CC42F-33DC-0942-8C84-E6F28B2BF540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACA5F38-3ED6-9F49-A6D2-CF54DF1452BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+      <selection activeCell="A183" sqref="A183:A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2891,6 +2891,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B184">
+        <v>356</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACA5F38-3ED6-9F49-A6D2-CF54DF1452BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E093D2B5-AE2C-C34F-970B-4BA35557D699}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183:A184"/>
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2902,6 +2902,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B185">
+        <v>540</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E093D2B5-AE2C-C34F-970B-4BA35557D699}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B48A6F-8FD9-2F4E-9FCB-6B395ED850B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+      <selection activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2913,6 +2913,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B186">
+        <v>349</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B48A6F-8FD9-2F4E-9FCB-6B395ED850B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3244E1-891D-BC44-9E5E-32DE16689B2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="G181" sqref="G181"/>
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2924,6 +2924,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>44229</v>
+      </c>
+      <c r="B187">
+        <v>148</v>
+      </c>
+      <c r="C187">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3244E1-891D-BC44-9E5E-32DE16689B2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E18155-F0B5-8E46-8E12-1898D4D25BF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2935,6 +2935,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B188">
+        <v>89</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E18155-F0B5-8E46-8E12-1898D4D25BF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93BAD13-314B-7045-AB86-8FFC64B9A334}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29180" yWindow="1640" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covdata" sheetId="1" r:id="rId1"/>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189"/>
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2946,6 +2946,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B189">
+        <v>76</v>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93BAD13-314B-7045-AB86-8FFC64B9A334}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB0AF8-9F2E-354C-AEA4-0A928EA5DFB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29180" yWindow="1640" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1640" windowWidth="25600" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covdata" sheetId="1" r:id="rId1"/>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2957,6 +2957,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B190">
+        <v>48</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB0AF8-9F2E-354C-AEA4-0A928EA5DFB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEEEA37-C792-CE4C-88BD-4B438D15A936}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1640" windowWidth="25600" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covdata" sheetId="1" r:id="rId1"/>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+      <selection activeCell="A190" sqref="A190:A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2968,6 +2968,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>44233</v>
+      </c>
+      <c r="B191">
+        <v>76</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEEEA37-C792-CE4C-88BD-4B438D15A936}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B009A-77ED-8540-9F05-E1D1C75F0485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190:A191"/>
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2979,6 +2979,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>44234</v>
+      </c>
+      <c r="B192">
+        <v>21</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B009A-77ED-8540-9F05-E1D1C75F0485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD036BE-D3DD-1041-80B2-32906C1C9186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2990,6 +2990,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B193">
+        <v>16</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD036BE-D3DD-1041-80B2-32906C1C9186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06ECD9A-9A00-9249-A370-27A0085981CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
+      <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3001,6 +3001,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>44236</v>
+      </c>
+      <c r="B194">
+        <v>417</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06ECD9A-9A00-9249-A370-27A0085981CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57B9DFA-6F62-2046-8949-4F35C1646FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3012,6 +3012,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B195">
+        <v>392</v>
+      </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57B9DFA-6F62-2046-8949-4F35C1646FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC36EF52-E67F-F84F-9EBD-C6CDA56494EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covdata" sheetId="1" r:id="rId1"/>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+      <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3023,6 +3023,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B196">
+        <v>386</v>
+      </c>
+      <c r="C196">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC36EF52-E67F-F84F-9EBD-C6CDA56494EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB71E29-2081-5044-9C54-4F9657D9A705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3034,6 +3034,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>44239</v>
+      </c>
+      <c r="B197">
+        <v>344</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB71E29-2081-5044-9C54-4F9657D9A705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5473F6E1-9D21-2E4F-93B2-6DCA2C050477}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covdata" sheetId="1" r:id="rId1"/>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C197"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+      <selection activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3045,6 +3045,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>44240</v>
+      </c>
+      <c r="B198">
+        <v>377</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5473F6E1-9D21-2E4F-93B2-6DCA2C050477}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F729B7E7-A552-414F-BE97-C94961A630C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="F198" sqref="F198"/>
+      <selection activeCell="H199" sqref="H199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3056,6 +3056,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>44241</v>
+      </c>
+      <c r="B199">
+        <v>21</v>
+      </c>
+      <c r="C199">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F729B7E7-A552-414F-BE97-C94961A630C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E936C0-A8B3-424F-AEF9-2BA234FB1A9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H199" sqref="H199"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3067,6 +3067,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>44242</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E936C0-A8B3-424F-AEF9-2BA234FB1A9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7602A9-1FE1-D746-9B7A-A721D9E83B3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+      <selection activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3078,6 +3078,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>44243</v>
+      </c>
+      <c r="B201">
+        <v>395</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7602A9-1FE1-D746-9B7A-A721D9E83B3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B458DE-C7A3-3244-8A9B-0C845EC21E38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="D201" sqref="D201"/>
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3089,6 +3089,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B202">
+        <v>263</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B458DE-C7A3-3244-8A9B-0C845EC21E38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706A8ECA-D366-9E49-A9A1-767EA2FDC27A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="G199" sqref="G199"/>
+      <selection activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3100,6 +3100,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B203">
+        <v>316</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706A8ECA-D366-9E49-A9A1-767EA2FDC27A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55175C62-7F03-9547-BE64-B19F42123C0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="F198" sqref="F198"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3111,6 +3111,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B204">
+        <v>264</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55175C62-7F03-9547-BE64-B19F42123C0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9891BBE0-CAD2-2046-92E8-EA3205CE50EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="F203" sqref="F203"/>
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3122,6 +3122,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B205">
+        <v>303</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9891BBE0-CAD2-2046-92E8-EA3205CE50EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B8B4D6-8EF1-2646-80C9-A12BDD5BF689}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C205"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+      <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3133,6 +3133,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B8B4D6-8EF1-2646-80C9-A12BDD5BF689}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14187B4B-8224-0142-B0E2-DC6BC0A1AA19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="G206" sqref="G206"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3144,6 +3144,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14187B4B-8224-0142-B0E2-DC6BC0A1AA19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CE0C3D-E298-FD47-9E69-704D276ADBA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213"/>
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3155,6 +3155,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B208">
+        <v>360</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CE0C3D-E298-FD47-9E69-704D276ADBA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF89E4F6-26F1-C847-A289-5B0546CC0080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3166,6 +3166,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B209">
+        <v>372</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF89E4F6-26F1-C847-A289-5B0546CC0080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0863ABF5-10A9-8D4D-8D43-9975990AB53F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3177,6 +3177,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B210">
+        <v>327</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0863ABF5-10A9-8D4D-8D43-9975990AB53F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6717C02E-48EF-2647-9CBF-0F7F0F902932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+      <selection activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3188,6 +3188,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B211">
+        <v>330</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6717C02E-48EF-2647-9CBF-0F7F0F902932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD92162-0259-C94D-B3B0-6FA679404877}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C215" sqref="C215"/>
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3199,6 +3199,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B212">
+        <v>401</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD92162-0259-C94D-B3B0-6FA679404877}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC662B08-5AC2-4E4A-BF45-5F8770781CEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3210,6 +3210,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B213">
+        <v>6</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC662B08-5AC2-4E4A-BF45-5F8770781CEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0574E5-71E1-C74C-9F56-5E88190BA71D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3221,6 +3221,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0574E5-71E1-C74C-9F56-5E88190BA71D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8F9148-BB57-7141-AAA1-B23B7FACFBBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+      <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3232,6 +3232,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B215">
+        <v>368</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8F9148-BB57-7141-AAA1-B23B7FACFBBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799BAFF3-CAF3-0740-90A3-328B00E36730}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+      <selection activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3243,6 +3243,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B216">
+        <v>362</v>
+      </c>
+      <c r="C216">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799BAFF3-CAF3-0740-90A3-328B00E36730}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124C90D3-7342-5C47-940E-3DCAFDDA1513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="F224" sqref="F224"/>
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3254,6 +3254,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B217">
+        <v>331</v>
+      </c>
+      <c r="C217">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124C90D3-7342-5C47-940E-3DCAFDDA1513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9F7020-B146-E047-8083-2FCBC7EE2D3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -870,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3265,6 +3276,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B218">
+        <v>393</v>
+      </c>
+      <c r="C218">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9F7020-B146-E047-8083-2FCBC7EE2D3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486BCEF4-9CA3-B540-842B-9EFE8849457A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="G221" sqref="G221"/>
+      <selection activeCell="F219" sqref="F219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3287,6 +3287,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B219">
+        <v>370</v>
+      </c>
+      <c r="C219">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486BCEF4-9CA3-B540-842B-9EFE8849457A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB28FF61-9AB3-794F-9896-AE2B67E57D3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="F219" sqref="F219"/>
+      <selection activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3298,6 +3298,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B220">
+        <v>19</v>
+      </c>
+      <c r="C220">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB28FF61-9AB3-794F-9896-AE2B67E57D3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194E8ACA-4C44-A149-8269-F10E32004A30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="G219" sqref="G219"/>
+      <selection activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3309,6 +3309,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B221">
+        <v>5</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194E8ACA-4C44-A149-8269-F10E32004A30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B914FBBC-CD74-C742-A671-806C0FA6DF9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E223" sqref="E223"/>
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3320,6 +3320,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B222">
+        <v>349</v>
+      </c>
+      <c r="C222">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B914FBBC-CD74-C742-A671-806C0FA6DF9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CEB2C9-A191-6F43-8B94-3E2E9FEBE63B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+      <selection activeCell="F222" sqref="F222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3331,6 +3331,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B223">
+        <v>381</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CEB2C9-A191-6F43-8B94-3E2E9FEBE63B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F5EAC-593D-1949-A6F9-C9AF0BA0855E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="F222" sqref="F222"/>
+      <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3342,6 +3342,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B224">
+        <v>337</v>
+      </c>
+      <c r="C224">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F5EAC-593D-1949-A6F9-C9AF0BA0855E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F262E65-6D46-274D-8987-F3C2123E651D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228"/>
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3353,6 +3353,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B225">
+        <v>371</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F262E65-6D46-274D-8987-F3C2123E651D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DF70EC-012B-C441-A48B-CCF139728BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+      <selection activeCell="A225" sqref="A225:A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3364,6 +3364,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>44268</v>
+      </c>
+      <c r="B226">
+        <v>357</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DF70EC-012B-C441-A48B-CCF139728BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B54A791-87A3-5F4D-8364-2FC3A4C489DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225:A226"/>
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3375,6 +3375,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>44269</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B54A791-87A3-5F4D-8364-2FC3A4C489DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAAF2F9-CA15-2C45-B809-9353468121D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C227"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+      <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3386,6 +3386,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B228">
+        <v>14</v>
+      </c>
+      <c r="C228">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covdata.xlsx
+++ b/covdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisunorig/Desktop/UR Covid Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAAF2F9-CA15-2C45-B809-9353468121D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76192A5-6B6C-7C49-B327-0728FC655343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228"/>
+      <selection activeCell="F227" sqref="F227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3397,6 +3397,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B229">
+        <v>347</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
